--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H2">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N2">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q2">
-        <v>795.4053836397972</v>
+        <v>171.9290765854177</v>
       </c>
       <c r="R2">
-        <v>7158.648452758175</v>
+        <v>1547.361689268759</v>
       </c>
       <c r="S2">
-        <v>0.04879155296602646</v>
+        <v>0.02542791868261705</v>
       </c>
       <c r="T2">
-        <v>0.04879155296602647</v>
+        <v>0.02542791868261704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H3">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q3">
-        <v>147.6684675811733</v>
+        <v>117.3907560530872</v>
       </c>
       <c r="R3">
-        <v>1329.01620823056</v>
+        <v>1056.516804477785</v>
       </c>
       <c r="S3">
-        <v>0.009058241251056937</v>
+        <v>0.01736182534270653</v>
       </c>
       <c r="T3">
-        <v>0.009058241251056939</v>
+        <v>0.01736182534270653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H4">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N4">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q4">
-        <v>125.0892938136</v>
+        <v>133.522209500624</v>
       </c>
       <c r="R4">
-        <v>1125.8036443224</v>
+        <v>1201.699885505616</v>
       </c>
       <c r="S4">
-        <v>0.007673195366946392</v>
+        <v>0.0197476305517085</v>
       </c>
       <c r="T4">
-        <v>0.007673195366946393</v>
+        <v>0.01974763055170849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H5">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N5">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O5">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P5">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q5">
-        <v>960.0932287347626</v>
+        <v>447.6831242689586</v>
       </c>
       <c r="R5">
-        <v>8640.839058612864</v>
+        <v>4029.148118420628</v>
       </c>
       <c r="S5">
-        <v>0.05889379250587173</v>
+        <v>0.06621131402305536</v>
       </c>
       <c r="T5">
-        <v>0.05889379250587175</v>
+        <v>0.06621131402305534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N6">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q6">
-        <v>2001.015316895815</v>
+        <v>544.082911460985</v>
       </c>
       <c r="R6">
-        <v>18009.13785206233</v>
+        <v>4896.746203148865</v>
       </c>
       <c r="S6">
-        <v>0.1227457681684057</v>
+        <v>0.08046862289961763</v>
       </c>
       <c r="T6">
-        <v>0.1227457681684057</v>
+        <v>0.08046862289961763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q7">
         <v>371.4921617707751</v>
@@ -883,10 +883,10 @@
         <v>3343.429455936976</v>
       </c>
       <c r="S7">
-        <v>0.02278797687357713</v>
+        <v>0.05494284427243924</v>
       </c>
       <c r="T7">
-        <v>0.02278797687357713</v>
+        <v>0.05494284427243924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N8">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q8">
-        <v>314.689337096625</v>
+        <v>422.54139865464</v>
       </c>
       <c r="R8">
-        <v>2832.204033869625</v>
+        <v>3802.87258789176</v>
       </c>
       <c r="S8">
-        <v>0.01930359257631948</v>
+        <v>0.06249291009069928</v>
       </c>
       <c r="T8">
-        <v>0.01930359257631948</v>
+        <v>0.06249291009069927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N9">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O9">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P9">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q9">
-        <v>2415.32342609366</v>
+        <v>1416.72800495262</v>
       </c>
       <c r="R9">
-        <v>21737.91083484294</v>
+        <v>12750.55204457358</v>
       </c>
       <c r="S9">
-        <v>0.1481601499037641</v>
+        <v>0.209530843885059</v>
       </c>
       <c r="T9">
-        <v>0.1481601499037641</v>
+        <v>0.209530843885059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H10">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N10">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q10">
-        <v>928.455616875028</v>
+        <v>270.6556982616066</v>
       </c>
       <c r="R10">
-        <v>8356.100551875252</v>
+        <v>2435.90128435446</v>
       </c>
       <c r="S10">
-        <v>0.05695308623643584</v>
+        <v>0.04002936107764096</v>
       </c>
       <c r="T10">
-        <v>0.05695308623643584</v>
+        <v>0.04002936107764096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H11">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>22.794685</v>
       </c>
       <c r="O11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q11">
-        <v>172.36948728418</v>
+        <v>184.7999051703222</v>
       </c>
       <c r="R11">
-        <v>1551.32538555762</v>
+        <v>1663.1991465329</v>
       </c>
       <c r="S11">
-        <v>0.0105734448641367</v>
+        <v>0.02733148490384465</v>
       </c>
       <c r="T11">
-        <v>0.0105734448641367</v>
+        <v>0.02733148490384465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H12">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N12">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q12">
-        <v>146.0134163547</v>
+        <v>210.19450324256</v>
       </c>
       <c r="R12">
-        <v>1314.1207471923</v>
+        <v>1891.75052918304</v>
       </c>
       <c r="S12">
-        <v>0.008956717523359201</v>
+        <v>0.03108728809655123</v>
       </c>
       <c r="T12">
-        <v>0.008956717523359201</v>
+        <v>0.03108728809655123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H13">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N13">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O13">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P13">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q13">
-        <v>1120.691372320592</v>
+        <v>704.7556527691465</v>
       </c>
       <c r="R13">
-        <v>10086.22235088533</v>
+        <v>6342.80087492232</v>
       </c>
       <c r="S13">
-        <v>0.06874516262503856</v>
+        <v>0.104231755242548</v>
       </c>
       <c r="T13">
-        <v>0.06874516262503857</v>
+        <v>0.104231755242548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H14">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N14">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O14">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P14">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q14">
-        <v>2668.195182100176</v>
+        <v>348.7173840553476</v>
       </c>
       <c r="R14">
-        <v>24013.75663890158</v>
+        <v>3138.456456498129</v>
       </c>
       <c r="S14">
-        <v>0.1636717442813945</v>
+        <v>0.05157450654118382</v>
       </c>
       <c r="T14">
-        <v>0.1636717442813945</v>
+        <v>0.05157450654118382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H15">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>22.794685</v>
       </c>
       <c r="O15">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P15">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q15">
-        <v>495.3553267960167</v>
+        <v>238.0993266300372</v>
       </c>
       <c r="R15">
-        <v>4458.19794116415</v>
+        <v>2142.893939670335</v>
       </c>
       <c r="S15">
-        <v>0.03038595936297597</v>
+        <v>0.03521434789377546</v>
       </c>
       <c r="T15">
-        <v>0.03038595936297597</v>
+        <v>0.03521434789377546</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H16">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N16">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O16">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P16">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q16">
-        <v>419.61326633025</v>
+        <v>270.818156736944</v>
       </c>
       <c r="R16">
-        <v>3776.51939697225</v>
+        <v>2437.363410632496</v>
       </c>
       <c r="S16">
-        <v>0.02573980932302981</v>
+        <v>0.04005338831597797</v>
       </c>
       <c r="T16">
-        <v>0.02573980932302981</v>
+        <v>0.04005338831597796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H17">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N17">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O17">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P17">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q17">
-        <v>3220.642178148973</v>
+        <v>908.0191150985186</v>
       </c>
       <c r="R17">
-        <v>28985.77960334076</v>
+        <v>8172.172035886668</v>
       </c>
       <c r="S17">
-        <v>0.1975598061716616</v>
+        <v>0.1342939581805754</v>
       </c>
       <c r="T17">
-        <v>0.1975598061716616</v>
+        <v>0.1342939581805754</v>
       </c>
     </row>
   </sheetData>
